--- a/regionseng/6/business sector/by size.xlsx
+++ b/regionseng/6/business sector/by size.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3225B6-6457-44F0-B0BE-614FB340A1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14520" windowHeight="8010"/>
+    <workbookView xWindow="-75" yWindow="0" windowWidth="14790" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0_);\(0.0\);\_"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -121,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -153,6 +154,8 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,6 +249,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -281,6 +301,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -456,11 +493,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -471,7 +508,7 @@
     <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +517,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -489,14 +526,14 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4">
         <v>2006</v>
@@ -543,8 +580,14 @@
       <c r="P5" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R5" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,8 +636,14 @@
       <c r="P6" s="9">
         <v>4311.3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="9">
+        <v>6512.9</v>
+      </c>
+      <c r="R6" s="9">
+        <v>7951.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>2</v>
       </c>
@@ -641,10 +690,16 @@
         <v>1157.8</v>
       </c>
       <c r="P7" s="10">
-        <v>3302.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1046.2</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>3092.1</v>
+      </c>
+      <c r="R7" s="10">
+        <v>3768.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -691,10 +746,16 @@
         <v>934.1</v>
       </c>
       <c r="P8" s="10">
-        <v>991.4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1025.0999999999999</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>1144.4000000000001</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1336.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -741,10 +802,23 @@
         <v>2193.3000000000002</v>
       </c>
       <c r="P9" s="10">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+        <v>2240</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>2276.4</v>
+      </c>
+      <c r="R9" s="10">
+        <v>2846.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -753,7 +827,7 @@
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4">
         <v>2006</v>
@@ -800,8 +874,14 @@
       <c r="P13" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R13" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -850,8 +930,14 @@
       <c r="P14" s="9">
         <v>2772.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="9">
+        <v>4229.7</v>
+      </c>
+      <c r="R14" s="9">
+        <v>5112.3999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>2</v>
       </c>
@@ -898,10 +984,16 @@
         <v>1093.2</v>
       </c>
       <c r="P15" s="10">
-        <v>1715.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1053.2</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>2244.5</v>
+      </c>
+      <c r="R15" s="10">
+        <v>2731.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,10 +1040,16 @@
         <v>584.20000000000005</v>
       </c>
       <c r="P16" s="10">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+        <v>655.20000000000005</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>742.5</v>
+      </c>
+      <c r="R16" s="10">
+        <v>778.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>4</v>
       </c>
@@ -998,10 +1096,16 @@
         <v>1024.2</v>
       </c>
       <c r="P17" s="10">
-        <v>29.8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1063.9000000000001</v>
+      </c>
+      <c r="Q17" s="10">
+        <v>1242.7</v>
+      </c>
+      <c r="R17" s="10">
+        <v>1602.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1018,7 +1122,7 @@
       <c r="N18" s="8"/>
       <c r="O18" s="8"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -1027,7 +1131,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4">
         <v>2006</v>
@@ -1074,8 +1178,14 @@
       <c r="P21" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R21" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>1</v>
       </c>
@@ -1121,11 +1231,17 @@
       <c r="O22" s="11">
         <v>58015</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="11">
         <v>52960.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="11">
+        <v>58406</v>
+      </c>
+      <c r="R22" s="11">
+        <v>59446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>2</v>
       </c>
@@ -1171,11 +1287,17 @@
       <c r="O23" s="12">
         <v>12020</v>
       </c>
-      <c r="P23" s="10">
-        <v>41760.300000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P23" s="12">
+        <v>13160</v>
+      </c>
+      <c r="Q23" s="12">
+        <v>14887</v>
+      </c>
+      <c r="R23" s="12">
+        <v>15170</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1221,11 +1343,17 @@
       <c r="O24" s="12">
         <v>11578</v>
       </c>
-      <c r="P24" s="10">
-        <v>9611.2000000000007</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P24" s="12">
+        <v>11249.5</v>
+      </c>
+      <c r="Q24" s="12">
+        <v>10989</v>
+      </c>
+      <c r="R24" s="12">
+        <v>11571</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>4</v>
       </c>
@@ -1251,16 +1379,16 @@
         <v>23625.582397341001</v>
       </c>
       <c r="I25" s="12">
-        <v>23033</v>
+        <v>23033.341080911996</v>
       </c>
       <c r="J25" s="12">
-        <v>27368</v>
+        <v>27368.249416441002</v>
       </c>
       <c r="K25" s="12">
-        <v>26781</v>
+        <v>26781.403123791999</v>
       </c>
       <c r="L25" s="12">
-        <v>29713</v>
+        <v>29713.320191191997</v>
       </c>
       <c r="M25" s="12">
         <v>31449</v>
@@ -1271,11 +1399,17 @@
       <c r="O25" s="12">
         <v>34417</v>
       </c>
-      <c r="P25" s="10">
-        <v>1589</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P25" s="12">
+        <v>28551</v>
+      </c>
+      <c r="Q25" s="12">
+        <v>32529</v>
+      </c>
+      <c r="R25" s="12">
+        <v>32705</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1284,7 +1418,7 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4">
         <v>2006</v>
@@ -1331,8 +1465,14 @@
       <c r="P29" s="5">
         <v>2020</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="5">
+        <v>2021</v>
+      </c>
+      <c r="R29" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1381,8 +1521,14 @@
       <c r="P30" s="9">
         <v>929.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="9">
+        <v>1045.9000000000001</v>
+      </c>
+      <c r="R30" s="9">
+        <v>1290.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>2</v>
       </c>
@@ -1429,10 +1575,16 @@
         <v>1106.5</v>
       </c>
       <c r="P31" s="10">
-        <v>806.8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1309.0999999999999</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>1559.7</v>
+      </c>
+      <c r="R31" s="10">
+        <v>2076.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,10 +1631,16 @@
         <v>923</v>
       </c>
       <c r="P32" s="10">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+        <v>1071.5</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>1228.9000000000001</v>
+      </c>
+      <c r="R32" s="10">
+        <v>1314.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>4</v>
       </c>
@@ -1529,7 +1687,13 @@
         <v>530.20000000000005</v>
       </c>
       <c r="P33" s="10">
-        <v>835.7</v>
+        <v>594.20000000000005</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>617.20000000000005</v>
+      </c>
+      <c r="R33" s="10">
+        <v>756.2</v>
       </c>
     </row>
   </sheetData>
